--- a/Данные.xlsx
+++ b/Данные.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Mydocks\Diploma_git\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809F7F56-CB8B-486A-9205-71C33DB1FF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78BABEA-A3A8-4C99-B704-41792846D7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Спектрофотометр" sheetId="1" r:id="rId1"/>
     <sheet name="Малый стенд 2 лампы" sheetId="2" r:id="rId2"/>
-    <sheet name="Малый стенд 1 лампа" sheetId="3" r:id="rId3"/>
+    <sheet name="Диафрагмирование" sheetId="4" r:id="rId3"/>
+    <sheet name="Малый стенд 1 лампа" sheetId="3" r:id="rId4"/>
+    <sheet name="Проверка стенда по стёклам" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>Пустышка</t>
   </si>
@@ -134,6 +135,57 @@
   <si>
     <t>Пробный запуск</t>
   </si>
+  <si>
+    <t>апертура</t>
+  </si>
+  <si>
+    <t>чистое излучение</t>
+  </si>
+  <si>
+    <t>через трубку</t>
+  </si>
+  <si>
+    <t>пропускание</t>
+  </si>
+  <si>
+    <t>Две диафрагмы</t>
+  </si>
+  <si>
+    <t>Без диафрагм</t>
+  </si>
+  <si>
+    <t>Одна диафрагма</t>
+  </si>
+  <si>
+    <t>УФС-1</t>
+  </si>
+  <si>
+    <t>открытый</t>
+  </si>
+  <si>
+    <t>через стекло</t>
+  </si>
+  <si>
+    <t>k_прох</t>
+  </si>
+  <si>
+    <t>УФС-2</t>
+  </si>
+  <si>
+    <t>Средний k_прох</t>
+  </si>
+  <si>
+    <t>3мм</t>
+  </si>
+  <si>
+    <t>1мм</t>
+  </si>
+  <si>
+    <t>2мм</t>
+  </si>
+  <si>
+    <t>4мм</t>
+  </si>
 </sst>
 </file>
 
@@ -634,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -665,6 +717,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,14 +736,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -694,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,20 +775,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -741,6 +799,884 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Влияние</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> апертуры на регистрируемый коэффициент пропускания</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Две диафрагмы</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Диафрагмирование!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Диафрагмирование!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-761A-43DA-B389-EA0072B7404B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Одна диафрагма</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Диафрагмирование!$I$3:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Диафрагмирование!$L$3:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-761A-43DA-B389-EA0072B7404B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Без диафрагм</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Диафрагмирование!$E$3:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Диафрагмирование!$H$3:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-761A-43DA-B389-EA0072B7404B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="409469872"/>
+        <c:axId val="409467352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="409469872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> апертуры (мм)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409467352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="409467352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="36"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Доля</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> прошедшего излучения (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409469872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1987,6 +2923,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2542,7 +3518,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298CDB62-60DB-4080-51D9-E525BA8BAAFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2890,10 +4423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E524E73-434F-44A5-B23B-2C57428BE0B9}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2908,18 +4441,24 @@
     <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -2933,15 +4472,22 @@
       <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="Q2" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="42"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -2978,8 +4524,29 @@
       <c r="O3" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -3014,12 +4581,34 @@
         <f>ROUND((M4-J4)/K4*100,1)</f>
         <v>7.4</v>
       </c>
-      <c r="P4">
-        <f>SQRT(N4/100)</f>
-        <v>0.74766302570074972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="S4" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="T4" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U4" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="V4" s="12">
+        <f>ROUND(T4/S4*100,1)</f>
+        <v>45</v>
+      </c>
+      <c r="W4" s="14">
+        <f>ROUND((U4-R4)/S4*100,1)</f>
+        <v>15.6</v>
+      </c>
+      <c r="X4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -3054,12 +4643,34 @@
         <f t="shared" ref="O5:O10" si="1">ROUND((M5-J5)/K5*100,1)</f>
         <v>13</v>
       </c>
-      <c r="P5">
-        <f t="shared" ref="P5:P18" si="2">SQRT(N5/100)</f>
-        <v>0.72041654617311501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q5" s="1">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="S5" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="T5" s="1">
+        <v>5</v>
+      </c>
+      <c r="U5" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="V5" s="12">
+        <f t="shared" ref="V5:V18" si="2">ROUND(T5/S5*100,1)</f>
+        <v>45.9</v>
+      </c>
+      <c r="W5" s="14">
+        <f t="shared" ref="W5:W18" si="3">ROUND((U5-R5)/S5*100,1)</f>
+        <v>13.8</v>
+      </c>
+      <c r="X5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="10" t="s">
@@ -3090,12 +4701,34 @@
         <f t="shared" si="1"/>
         <v>15.3</v>
       </c>
-      <c r="P6">
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="S6" s="1">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="T6" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="U6" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="V6" s="12">
         <f t="shared" si="2"/>
-        <v>0.71693793315739685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46.9</v>
+      </c>
+      <c r="W6" s="14">
+        <f t="shared" si="3"/>
+        <v>15.2</v>
+      </c>
+      <c r="X6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -3130,12 +4763,31 @@
         <f t="shared" si="1"/>
         <v>16.2</v>
       </c>
-      <c r="P7">
+      <c r="Q7" s="1">
+        <v>4</v>
+      </c>
+      <c r="R7" s="1">
+        <v>39.4</v>
+      </c>
+      <c r="S7" s="1">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="T7" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="U7" s="1">
+        <v>44.9</v>
+      </c>
+      <c r="V7" s="12">
         <f t="shared" si="2"/>
-        <v>0.75762787699503242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46.1</v>
+      </c>
+      <c r="W7" s="14">
+        <f t="shared" si="3"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -3164,12 +4816,31 @@
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="20"/>
-      <c r="P8">
+      <c r="Q8" s="1">
+        <v>5</v>
+      </c>
+      <c r="R8" s="1">
+        <v>39.6</v>
+      </c>
+      <c r="S8" s="1">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="T8" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="U8" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="V8" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="W8" s="14">
+        <f t="shared" si="3"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -3198,12 +4869,31 @@
       </c>
       <c r="N9" s="19"/>
       <c r="O9" s="20"/>
-      <c r="P9">
+      <c r="Q9" s="1">
+        <v>6</v>
+      </c>
+      <c r="R9" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="S9" s="1">
+        <v>38.6</v>
+      </c>
+      <c r="T9" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="U9" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="V9" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>47.2</v>
+      </c>
+      <c r="W9" s="14">
+        <f t="shared" si="3"/>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -3238,12 +4928,31 @@
         <f t="shared" si="1"/>
         <v>18.100000000000001</v>
       </c>
-      <c r="P10">
+      <c r="Q10" s="1">
+        <v>7</v>
+      </c>
+      <c r="R10" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="S10" s="1">
+        <v>38.6</v>
+      </c>
+      <c r="T10" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="U10" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="V10" s="12">
         <f t="shared" si="2"/>
-        <v>0.72801098892805183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46.9</v>
+      </c>
+      <c r="W10" s="14">
+        <f t="shared" si="3"/>
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I11" s="5">
         <v>8</v>
       </c>
@@ -3261,17 +4970,36 @@
       </c>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G12" s="53" t="s">
+      <c r="Q11" s="1">
+        <v>8</v>
+      </c>
+      <c r="R11" s="1">
+        <v>39.1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="T11" s="1">
+        <v>18</v>
+      </c>
+      <c r="U11" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="V11" s="12">
+        <f>ROUND(T11/S11*100,1)</f>
+        <v>47.7</v>
+      </c>
+      <c r="W11" s="14">
+        <f>ROUND((U11-R11)/S11*100,1)</f>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="49">
+      <c r="H12" s="44"/>
+      <c r="I12" s="35">
         <v>9</v>
       </c>
       <c r="J12" s="26">
@@ -3294,306 +5022,402 @@
         <f>ROUND((M12-J12)/K12*100,1)</f>
         <v>13</v>
       </c>
-      <c r="P12">
+      <c r="Q12" s="1">
+        <v>9</v>
+      </c>
+      <c r="R12" s="1">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="S12" s="1">
+        <v>37.9</v>
+      </c>
+      <c r="T12" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="U12" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="V12" s="12">
         <f t="shared" si="2"/>
-        <v>0.74565407529229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="50">
+        <v>46.7</v>
+      </c>
+      <c r="W12" s="14">
+        <f t="shared" si="3"/>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="36">
         <v>10</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="30">
         <v>8.9</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="31">
         <v>11.6</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="31">
         <v>6.1</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="32">
         <v>11.3</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="30">
         <f>ROUND(L13/K13*100,1)</f>
         <v>52.6</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="32">
         <f>ROUND((M13-J13)/K13*100,1)</f>
         <v>20.7</v>
       </c>
-      <c r="P13">
+      <c r="Q13" s="1">
+        <v>10</v>
+      </c>
+      <c r="R13" s="1">
+        <v>38.4</v>
+      </c>
+      <c r="S13" s="1">
+        <v>38.6</v>
+      </c>
+      <c r="T13" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="U13" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="V13" s="12">
         <f t="shared" si="2"/>
-        <v>0.72525857457874987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G14" s="53" t="s">
+        <v>46.9</v>
+      </c>
+      <c r="W13" s="14">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="51">
+      <c r="H14" s="44"/>
+      <c r="I14" s="37">
         <v>11</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="33">
         <v>30.4</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="33">
         <v>30.6</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="33">
         <v>14.2</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="33">
         <v>35</v>
       </c>
-      <c r="N14" s="37">
-        <f t="shared" ref="N14:N16" si="3">ROUND(L14/K14*100,1)</f>
+      <c r="N14" s="33">
+        <f t="shared" ref="N14:N16" si="4">ROUND(L14/K14*100,1)</f>
         <v>46.4</v>
       </c>
-      <c r="O14" s="37">
-        <f t="shared" ref="O14:O16" si="4">ROUND((M14-J14)/K14*100,1)</f>
+      <c r="O14" s="33">
+        <f t="shared" ref="O14:O16" si="5">ROUND((M14-J14)/K14*100,1)</f>
         <v>15</v>
       </c>
-      <c r="P14">
+      <c r="Q14" s="1">
+        <v>11</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>0.68117545463705598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="51">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="37">
         <v>12</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="33">
         <v>30.4</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="33">
         <v>31</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="33">
         <v>14.3</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="33">
         <v>35.200000000000003</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="33">
+        <f t="shared" si="4"/>
+        <v>46.1</v>
+      </c>
+      <c r="O15" s="33">
+        <f t="shared" si="5"/>
+        <v>15.5</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>12</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" s="14" t="e">
         <f t="shared" si="3"/>
-        <v>46.1</v>
-      </c>
-      <c r="O15" s="37">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="37">
+        <v>13</v>
+      </c>
+      <c r="J16" s="33">
+        <v>30.5</v>
+      </c>
+      <c r="K16" s="33">
+        <v>30.2</v>
+      </c>
+      <c r="L16" s="33">
+        <v>14</v>
+      </c>
+      <c r="M16" s="33">
+        <v>34.1</v>
+      </c>
+      <c r="N16" s="33">
         <f t="shared" si="4"/>
-        <v>15.5</v>
-      </c>
-      <c r="P15">
+        <v>46.4</v>
+      </c>
+      <c r="O16" s="33">
+        <f t="shared" si="5"/>
+        <v>11.9</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>13</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>0.67896980787071826</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="51">
-        <v>13</v>
-      </c>
-      <c r="J16" s="37">
-        <v>30.5</v>
-      </c>
-      <c r="K16" s="37">
-        <v>30.2</v>
-      </c>
-      <c r="L16" s="37">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="4:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="46"/>
+      <c r="I17" s="38">
         <v>14</v>
       </c>
-      <c r="M16" s="37">
-        <v>34.1</v>
-      </c>
-      <c r="N16" s="37">
-        <f t="shared" si="3"/>
-        <v>46.4</v>
-      </c>
-      <c r="O16" s="37">
-        <f t="shared" si="4"/>
-        <v>11.9</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
-        <v>0.68117545463705598</v>
-      </c>
-    </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D17" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="52">
-        <v>14</v>
-      </c>
-      <c r="J17" s="38">
+      <c r="J17" s="34">
         <v>10.7</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="34">
         <v>10.9</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="34">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="34">
         <v>12.4</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="34">
         <f>ROUND(L17/K17*100,1)</f>
         <v>45</v>
       </c>
-      <c r="O17" s="38">
+      <c r="O17" s="34">
         <f>ROUND((M17-J17)/K17*100,1)</f>
         <v>15.6</v>
       </c>
-      <c r="P17">
+      <c r="Q17" s="1">
+        <v>14</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>0.67082039324993692</v>
-      </c>
-    </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D18" s="53"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="52">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D18" s="44"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="38">
         <v>15</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="34">
         <v>10.7</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="34">
         <v>10.9</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="34">
         <v>5</v>
       </c>
-      <c r="M18" s="38">
+      <c r="M18" s="34">
         <v>12.2</v>
       </c>
-      <c r="N18" s="38">
-        <f t="shared" ref="N18:N21" si="5">ROUND(L18/K18*100,1)</f>
+      <c r="N18" s="34">
+        <f t="shared" ref="N18:N21" si="6">ROUND(L18/K18*100,1)</f>
         <v>45.9</v>
       </c>
-      <c r="O18" s="38">
-        <f t="shared" ref="O18:O21" si="6">ROUND((M18-J18)/K18*100,1)</f>
+      <c r="O18" s="34">
+        <f t="shared" ref="O18:O21" si="7">ROUND((M18-J18)/K18*100,1)</f>
         <v>13.8</v>
       </c>
-      <c r="P18">
+      <c r="Q18" s="1">
+        <v>15</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>0.67749538743817284</v>
-      </c>
-    </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="52">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W18" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D19" s="44"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="38">
         <v>16</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="38" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="38" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D20" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="52">
-        <v>17</v>
-      </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="38" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="38" t="e">
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="52">
-        <v>18</v>
-      </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="38" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="38" t="e">
+      <c r="O19" s="34" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D20" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="38">
+        <v>17</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q21" s="48" t="s">
+      <c r="O20" s="34" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="38">
+        <v>18</v>
+      </c>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="34" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="34" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="I23" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-    </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-    </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-    </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+    </row>
+    <row r="24" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+    </row>
+    <row r="25" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+    </row>
+    <row r="26" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G14:H16"/>
-    <mergeCell ref="G17:H21"/>
-    <mergeCell ref="J19:M21"/>
-    <mergeCell ref="Q21:U24"/>
+  <mergeCells count="9">
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="I23:M26"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H16"/>
+    <mergeCell ref="G17:H21"/>
+    <mergeCell ref="J19:M21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3601,6 +5425,716 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B75959F-FA65-4E91-A12C-8C09C9FBF109}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.3</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D17" si="0">ROUND(C3/B3*100,1)</f>
+        <v>45.5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>298.2</v>
+      </c>
+      <c r="G3">
+        <v>108.5</v>
+      </c>
+      <c r="H3">
+        <f>ROUND(G3/F3*100,1)</f>
+        <v>36.4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="K3">
+        <v>7.1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L17" si="1">ROUND(K3/J3*100,1)</f>
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11.5</v>
+      </c>
+      <c r="C4">
+        <v>5.2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>45.2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>298.2</v>
+      </c>
+      <c r="G4">
+        <v>108.5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H17" si="2">ROUND(G4/F4*100,1)</f>
+        <v>36.4</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>30.7</v>
+      </c>
+      <c r="K4">
+        <v>13.8</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24.3</v>
+      </c>
+      <c r="C5">
+        <v>11.1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>45.7</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>298.2</v>
+      </c>
+      <c r="G5">
+        <v>108.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>36.4</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>45.6</v>
+      </c>
+      <c r="K5">
+        <v>20.7</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>298.2</v>
+      </c>
+      <c r="G6">
+        <v>108.5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>36.4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>60.1</v>
+      </c>
+      <c r="K6">
+        <v>27</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>57.9</v>
+      </c>
+      <c r="C7">
+        <v>26.2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>45.3</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>298.2</v>
+      </c>
+      <c r="G7">
+        <v>108.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>36.4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>75.2</v>
+      </c>
+      <c r="K7">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>75.8</v>
+      </c>
+      <c r="C8">
+        <v>33.9</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>44.7</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>298.2</v>
+      </c>
+      <c r="G8">
+        <v>108.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>36.4</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>88.9</v>
+      </c>
+      <c r="K8">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>92.8</v>
+      </c>
+      <c r="C9">
+        <v>41.5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>44.7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>298.2</v>
+      </c>
+      <c r="G9">
+        <v>108.5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>36.4</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>102.8</v>
+      </c>
+      <c r="K9">
+        <v>45.9</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>108.1</v>
+      </c>
+      <c r="C10">
+        <v>48.9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>45.2</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>298.2</v>
+      </c>
+      <c r="G10">
+        <v>108.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>36.4</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>115</v>
+      </c>
+      <c r="K10">
+        <v>51.3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>123.9</v>
+      </c>
+      <c r="C11">
+        <v>55.4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>44.7</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>298.2</v>
+      </c>
+      <c r="G11">
+        <v>108.5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>36.4</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="K11">
+        <v>57</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>137.5</v>
+      </c>
+      <c r="C12">
+        <v>60.4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>43.9</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>298.2</v>
+      </c>
+      <c r="G12">
+        <v>108.5</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>36.4</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>142</v>
+      </c>
+      <c r="K12">
+        <v>60.4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>150.4</v>
+      </c>
+      <c r="C13">
+        <v>64.2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>42.7</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>298.2</v>
+      </c>
+      <c r="G13">
+        <v>108.5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>36.4</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="K13">
+        <v>65.2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>162.4</v>
+      </c>
+      <c r="C14">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>41.8</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>298.2</v>
+      </c>
+      <c r="G14">
+        <v>108.5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>36.4</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>165.8</v>
+      </c>
+      <c r="K14">
+        <v>67.7</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>172.5</v>
+      </c>
+      <c r="C15">
+        <v>71.2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>41.3</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>298.2</v>
+      </c>
+      <c r="G15">
+        <v>108.5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>36.4</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>176.2</v>
+      </c>
+      <c r="K15">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>183.2</v>
+      </c>
+      <c r="C16">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>40.1</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>298.2</v>
+      </c>
+      <c r="G16">
+        <v>108.5</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>36.4</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>186</v>
+      </c>
+      <c r="K16">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>191.4</v>
+      </c>
+      <c r="C17">
+        <v>75.2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>298.2</v>
+      </c>
+      <c r="G17">
+        <v>108.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>36.4</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>195.3</v>
+      </c>
+      <c r="K17">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>37.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D17">
+    <sortCondition ref="A3:A17"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD3F2E3-881E-4E20-9144-59BCEAF01975}">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -4236,4 +6770,250 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3873DAD8-2C14-457C-8B41-39C5ED03D4D8}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="D3" s="1">
+        <f>ROUND(C3/B3*100,2)</f>
+        <v>35.979999999999997</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H3" s="1">
+        <f>ROUND(G3/F3*100,2)</f>
+        <v>2.97</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D7" si="0">ROUND(C4/B4*100,2)</f>
+        <v>35.15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H7" si="1">ROUND(G4/F4*100,2)</f>
+        <v>3.04</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>34.97</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.87</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>33.94</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>33.94</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="1">
+        <f>AVERAGE(D3:D7)</f>
+        <v>34.795999999999999</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="1">
+        <f>AVERAGE(H3:H7)</f>
+        <v>3.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:G8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Данные.xlsx
+++ b/Данные.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Mydocks\Diploma_git\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78BABEA-A3A8-4C99-B704-41792846D7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E310CC-5FFA-4729-A3F5-3B61332B3D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Спектрофотометр" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Пустышка</t>
   </si>
@@ -186,6 +186,18 @@
   <si>
     <t>4мм</t>
   </si>
+  <si>
+    <t>попытка 5</t>
+  </si>
+  <si>
+    <t>среднее пропускание пустой лампы</t>
+  </si>
+  <si>
+    <t>Кв. отклонение</t>
+  </si>
+  <si>
+    <t>среднее пропускание горящей лампы</t>
+  </si>
 </sst>
 </file>
 
@@ -686,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -716,7 +728,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
@@ -727,6 +738,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -773,9 +791,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4038,16 +4053,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4079,16 +4094,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4381,8 +4396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4423,10 +4438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E524E73-434F-44A5-B23B-2C57428BE0B9}">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12:AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4447,18 +4462,22 @@
     <col min="21" max="21" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" customWidth="1"/>
+    <col min="27" max="27" width="20.44140625" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-    </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -4472,22 +4491,22 @@
       <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="Q2" s="40" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="Q2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="44"/>
+    </row>
+    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -4546,7 +4565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -4608,7 +4627,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -4670,7 +4689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="10" t="s">
@@ -4728,7 +4747,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -4787,7 +4806,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -4840,7 +4859,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -4893,7 +4912,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -4952,7 +4971,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I11" s="5">
         <v>8</v>
       </c>
@@ -4994,12 +5013,12 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G12" s="44" t="s">
+    <row r="12" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="35">
+      <c r="H12" s="46"/>
+      <c r="I12" s="34">
         <v>9</v>
       </c>
       <c r="J12" s="26">
@@ -5045,30 +5064,42 @@
         <f t="shared" si="3"/>
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="36">
+      <c r="Y12" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z12" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA12" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB12" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="35">
         <v>10</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="29">
         <v>8.9</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="30">
         <v>11.6</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="30">
         <v>6.1</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="31">
         <v>11.3</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="29">
         <f>ROUND(L13/K13*100,1)</f>
         <v>52.6</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="31">
         <f>ROUND((M13-J13)/K13*100,1)</f>
         <v>20.7</v>
       </c>
@@ -5095,32 +5126,36 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="44" t="s">
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+    </row>
+    <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="37">
+      <c r="H14" s="46"/>
+      <c r="I14" s="36">
         <v>11</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="32">
         <v>30.4</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="32">
         <v>30.6</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="32">
         <v>14.2</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="32">
         <v>35</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="32">
         <f t="shared" ref="N14:N16" si="4">ROUND(L14/K14*100,1)</f>
         <v>46.4</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="32">
         <f t="shared" ref="O14:O16" si="5">ROUND((M14-J14)/K14*100,1)</f>
         <v>15</v>
       </c>
@@ -5139,30 +5174,46 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="37">
+      <c r="Y14" s="39">
+        <f>AVERAGE(V4:V13)</f>
+        <v>46.629999999999995</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>SQRT(DEVSQ(V4:V13)/(COUNT(V4:V13)-1))</f>
+        <v>0.76746335417399625</v>
+      </c>
+      <c r="AA14" s="1">
+        <f>AVERAGE(W4:W13)</f>
+        <v>14.819999999999999</v>
+      </c>
+      <c r="AB14" s="1">
+        <f>SQRT(DEVSQ(W4:W13)/(COUNT(W4:W13)-1))</f>
+        <v>1.1409547658771477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="36">
         <v>12</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="32">
         <v>30.4</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="32">
         <v>31</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="32">
         <v>14.3</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="32">
         <v>35.200000000000003</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="32">
         <f t="shared" si="4"/>
         <v>46.1</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="32">
         <f t="shared" si="5"/>
         <v>15.5</v>
       </c>
@@ -5182,29 +5233,29 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="37">
+    <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="36">
         <v>13</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="32">
         <v>30.5</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="32">
         <v>30.2</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="32">
         <v>14</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="32">
         <v>34.1</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="32">
         <f t="shared" si="4"/>
         <v>46.4</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="32">
         <f t="shared" si="5"/>
         <v>11.9</v>
       </c>
@@ -5225,33 +5276,33 @@
       </c>
     </row>
     <row r="17" spans="4:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="38">
+      <c r="H17" s="48"/>
+      <c r="I17" s="37">
         <v>14</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="33">
         <v>10.7</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="33">
         <v>10.9</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="33">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="33">
         <v>12.4</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="33">
         <f>ROUND(L17/K17*100,1)</f>
         <v>45</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="33">
         <f>ROUND((M17-J17)/K17*100,1)</f>
         <v>15.6</v>
       </c>
@@ -5272,29 +5323,29 @@
       </c>
     </row>
     <row r="18" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D18" s="44"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="38">
+      <c r="D18" s="46"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="37">
         <v>15</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="33">
         <v>10.7</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="33">
         <v>10.9</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="33">
         <v>5</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18" s="33">
         <v>12.2</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18" s="33">
         <f t="shared" ref="N18:N21" si="6">ROUND(L18/K18*100,1)</f>
         <v>45.9</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O18" s="33">
         <f t="shared" ref="O18:O21" si="7">ROUND((M18-J18)/K18*100,1)</f>
         <v>13.8</v>
       </c>
@@ -5315,101 +5366,100 @@
       </c>
     </row>
     <row r="19" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D19" s="44"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="38">
+      <c r="D19" s="46"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="37">
         <v>16</v>
       </c>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="34" t="e">
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O19" s="34" t="e">
+      <c r="O19" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="38">
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="37">
         <v>17</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="34" t="e">
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O20" s="34" t="e">
+      <c r="O20" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="38">
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="37">
         <v>18</v>
       </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="34" t="e">
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O21" s="34" t="e">
+      <c r="O21" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
     </row>
     <row r="24" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
     </row>
     <row r="25" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
     </row>
     <row r="26" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Q2:U2"/>
+  <mergeCells count="13">
     <mergeCell ref="I23:M26"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="I2:M2"/>
@@ -5418,6 +5468,11 @@
     <mergeCell ref="G14:H16"/>
     <mergeCell ref="G17:H21"/>
     <mergeCell ref="J19:M21"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="Q2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5428,8 +5483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B75959F-FA65-4E91-A12C-8C09C9FBF109}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5448,674 +5503,674 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>3.3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D17" si="0">ROUND(C3/B3*100,1)</f>
         <v>45.5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>298.2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>108.5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f>ROUND(G3/F3*100,1)</f>
         <v>36.4</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>7.1</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <f t="shared" ref="L3:L17" si="1">ROUND(K3/J3*100,1)</f>
         <v>44.1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>11.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>5.2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>45.2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>298.2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>108.5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f t="shared" ref="H4:H17" si="2">ROUND(G4/F4*100,1)</f>
         <v>36.4</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>30.7</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>13.8</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>24.3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>11.1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>45.7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>298.2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>108.5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f t="shared" si="2"/>
         <v>36.4</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>45.6</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>20.7</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
         <v>45.4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>40</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>18.399999999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>298.2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>108.5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f t="shared" si="2"/>
         <v>36.4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>60.1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>27</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <f t="shared" si="1"/>
         <v>44.9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>57.9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>26.2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>45.3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>298.2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>108.5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f t="shared" si="2"/>
         <v>36.4</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>75.2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>33.299999999999997</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <f t="shared" si="1"/>
         <v>44.3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>75.8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>33.9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>44.7</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>298.2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>108.5</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f t="shared" si="2"/>
         <v>36.4</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>6</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>88.9</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>39.700000000000003</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <f t="shared" si="1"/>
         <v>44.7</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>92.8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>41.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>44.7</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>7</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>298.2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>108.5</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <f t="shared" si="2"/>
         <v>36.4</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>7</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>102.8</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>45.9</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <f t="shared" si="1"/>
         <v>44.6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>108.1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>48.9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>45.2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>298.2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>108.5</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <f t="shared" si="2"/>
         <v>36.4</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>8</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>115</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>51.3</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <f t="shared" si="1"/>
         <v>44.6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>123.9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>55.4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>44.7</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>9</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>298.2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>108.5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <f t="shared" si="2"/>
         <v>36.4</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>9</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>129.30000000000001</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>57</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <f t="shared" si="1"/>
         <v>44.1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>137.5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>60.4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>43.9</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>298.2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>108.5</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <f t="shared" si="2"/>
         <v>36.4</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>10</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>142</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>60.4</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>150.4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>64.2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>42.7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>11</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>298.2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>108.5</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <f t="shared" si="2"/>
         <v>36.4</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>11</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>154.30000000000001</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>65.2</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <f t="shared" si="1"/>
         <v>42.3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>162.4</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>67.900000000000006</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>41.8</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>298.2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>108.5</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <f t="shared" si="2"/>
         <v>36.4</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>12</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>165.8</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>67.7</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <f t="shared" si="1"/>
         <v>40.799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>172.5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>71.2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>41.3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>13</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>298.2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>108.5</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <f t="shared" si="2"/>
         <v>36.4</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>13</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>176.2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>68.400000000000006</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <f t="shared" si="1"/>
         <v>38.799999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>183.2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>73.400000000000006</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>40.1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>14</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>298.2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>108.5</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <f t="shared" si="2"/>
         <v>36.4</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>186</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>70.599999999999994</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>191.4</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>75.2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>39.299999999999997</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>15</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>298.2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>108.5</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <f t="shared" si="2"/>
         <v>36.4</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>15</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>195.3</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>74.099999999999994</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <f t="shared" si="1"/>
         <v>37.9</v>
       </c>
@@ -6139,7 +6194,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6149,616 +6204,621 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <f>2*(A2-1)</f>
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.8</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.8</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <f t="shared" ref="B3:B26" si="0">2*(A3-1)</f>
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.8</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.7</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.7</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.7</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.7</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.7</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="40">
         <v>0.6</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="40">
         <v>0.7</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="40">
         <v>0.7</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="40">
         <v>0.7</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="40">
         <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1.3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1.3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>1.3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>1.3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>4.8</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>14.8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>16.3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>16.2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>16.3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>16.3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>22.3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>22.3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>22.4</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>22.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>22.2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>26.7</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>26.8</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>26.8</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>26.9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>23.3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>29</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>29.1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>29.2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>29.3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>24.7</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>30.7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>30.8</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>30.9</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>30.9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>24.2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>30.8</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>30.9</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>30.9</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>24.2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>29.7</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>29.6</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>29.7</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>29.8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>22.8</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>27.3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>27.3</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>27.2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>27.4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>22.9</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>22.8</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>22.8</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>15.3</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>17.2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>17.5</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>17.3</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>17.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>5.4</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>7</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>7</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>7</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>6.9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>1.2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>1.9</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>1.9</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="40">
         <v>0.4</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="40">
         <v>0.5</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="40">
         <v>0.7</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="40">
         <v>0.7</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="40">
         <v>0.7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>0.4</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0.5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>0.5</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>0.5</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>0.3</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>0.4</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>0.4</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>0.4</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>0.3</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0.4</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>0.4</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>0.4</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>0.3</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>0.4</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>0.4</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>0.4</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>0.3</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0.4</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>0.4</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>0.4</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>0.4</v>
       </c>
     </row>
@@ -6777,7 +6837,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6793,18 +6853,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6988,20 +7048,20 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="1">
         <f>AVERAGE(D3:D7)</f>
         <v>34.795999999999999</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="1">
         <f>AVERAGE(H3:H7)</f>
         <v>3.25</v>

--- a/Данные.xlsx
+++ b/Данные.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Mydocks\Diploma_git\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E310CC-5FFA-4729-A3F5-3B61332B3D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D8FBA2-7620-46EE-85B0-12F31F47368F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Спектрофотометр" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Диафрагмирование" sheetId="4" r:id="rId3"/>
     <sheet name="Малый стенд 1 лампа" sheetId="3" r:id="rId4"/>
     <sheet name="Проверка стенда по стёклам" sheetId="5" r:id="rId5"/>
+    <sheet name="Большой стенд" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>Пустышка</t>
   </si>
@@ -198,6 +199,30 @@
   <si>
     <t>среднее пропускание горящей лампы</t>
   </si>
+  <si>
+    <t>угол</t>
+  </si>
+  <si>
+    <t>Интенсивность</t>
+  </si>
+  <si>
+    <t>4 лампы</t>
+  </si>
+  <si>
+    <t>6 ламп</t>
+  </si>
+  <si>
+    <t>8 ламп</t>
+  </si>
+  <si>
+    <t>3 ламп</t>
+  </si>
+  <si>
+    <t>10^-4</t>
+  </si>
+  <si>
+    <t>middle?</t>
+  </si>
 </sst>
 </file>
 
@@ -265,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -694,11 +719,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -742,7 +834,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -753,12 +853,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -794,6 +888,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2937,6 +3040,3127 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Большой стенд'!$A$3:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="144"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Большой стенд'!$B$3:$B$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="144"/>
+                <c:pt idx="0">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5811-4FDA-833B-4AA79079E2FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="410973880"/>
+        <c:axId val="410974240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="410973880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410974240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="410974240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410973880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Большой стенд'!$A$3:$A$288</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="286"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Большой стенд'!$B$3:$B$288</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="286"/>
+                <c:pt idx="0">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9984-47F6-BCBD-7E353F5E413A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="518636624"/>
+        <c:axId val="518633384"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="518636624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518633384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="518633384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518636624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2978,6 +6202,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4049,6 +7353,1027 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4123,6 +8448,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3123DBF-1F62-7326-926C-966508D04084}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B81B4E-39CA-B868-F6BB-958D7D77DEBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4396,7 +8798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4469,13 +8871,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -4491,20 +8893,20 @@
       <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="Q2" s="42" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="Q2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="44"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="50"/>
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -5014,10 +9416,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="34">
         <v>9</v>
       </c>
@@ -5034,11 +9436,11 @@
         <v>12.4</v>
       </c>
       <c r="N12" s="26">
-        <f>ROUND(L12/K12*100,1)</f>
+        <f t="shared" ref="N12:N21" si="4">ROUND(L12/K12*100,1)</f>
         <v>55.6</v>
       </c>
       <c r="O12" s="28">
-        <f>ROUND((M12-J12)/K12*100,1)</f>
+        <f t="shared" ref="O12:O21" si="5">ROUND((M12-J12)/K12*100,1)</f>
         <v>13</v>
       </c>
       <c r="Q12" s="1">
@@ -5064,22 +9466,22 @@
         <f t="shared" si="3"/>
         <v>16.399999999999999</v>
       </c>
-      <c r="Y12" s="41" t="s">
+      <c r="Y12" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="Z12" s="41" t="s">
+      <c r="Z12" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="AA12" s="41" t="s">
+      <c r="AA12" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="AB12" s="41" t="s">
+      <c r="AB12" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="35">
         <v>10</v>
       </c>
@@ -5096,11 +9498,11 @@
         <v>11.3</v>
       </c>
       <c r="N13" s="29">
-        <f>ROUND(L13/K13*100,1)</f>
+        <f t="shared" si="4"/>
         <v>52.6</v>
       </c>
       <c r="O13" s="31">
-        <f>ROUND((M13-J13)/K13*100,1)</f>
+        <f t="shared" si="5"/>
         <v>20.7</v>
       </c>
       <c r="Q13" s="1">
@@ -5126,16 +9528,16 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
     </row>
     <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="46"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="36">
         <v>11</v>
       </c>
@@ -5152,11 +9554,11 @@
         <v>35</v>
       </c>
       <c r="N14" s="32">
-        <f t="shared" ref="N14:N16" si="4">ROUND(L14/K14*100,1)</f>
+        <f t="shared" si="4"/>
         <v>46.4</v>
       </c>
       <c r="O14" s="32">
-        <f t="shared" ref="O14:O16" si="5">ROUND((M14-J14)/K14*100,1)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="Q14" s="1">
@@ -5192,8 +9594,8 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="36">
         <v>12</v>
       </c>
@@ -5234,8 +9636,8 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="36">
         <v>13</v>
       </c>
@@ -5276,13 +9678,13 @@
       </c>
     </row>
     <row r="17" spans="4:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="48"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="37">
         <v>14</v>
       </c>
@@ -5299,11 +9701,11 @@
         <v>12.4</v>
       </c>
       <c r="N17" s="33">
-        <f>ROUND(L17/K17*100,1)</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="O17" s="33">
-        <f>ROUND((M17-J17)/K17*100,1)</f>
+        <f t="shared" si="5"/>
         <v>15.6</v>
       </c>
       <c r="Q17" s="1">
@@ -5323,9 +9725,9 @@
       </c>
     </row>
     <row r="18" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D18" s="46"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
+      <c r="D18" s="47"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
       <c r="I18" s="37">
         <v>15</v>
       </c>
@@ -5342,11 +9744,11 @@
         <v>12.2</v>
       </c>
       <c r="N18" s="33">
-        <f t="shared" ref="N18:N21" si="6">ROUND(L18/K18*100,1)</f>
+        <f t="shared" si="4"/>
         <v>45.9</v>
       </c>
       <c r="O18" s="33">
-        <f t="shared" ref="O18:O21" si="7">ROUND((M18-J18)/K18*100,1)</f>
+        <f t="shared" si="5"/>
         <v>13.8</v>
       </c>
       <c r="Q18" s="1">
@@ -5366,24 +9768,24 @@
       </c>
     </row>
     <row r="19" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D19" s="46"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
+      <c r="D19" s="47"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
       <c r="I19" s="37">
         <v>16</v>
       </c>
-      <c r="J19" s="49" t="s">
+      <c r="J19" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="55"/>
       <c r="N19" s="33" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O19" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -5391,75 +9793,80 @@
       <c r="D20" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="37">
         <v>17</v>
       </c>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="54"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
       <c r="N20" s="33" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O20" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
       <c r="I21" s="37">
         <v>18</v>
       </c>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="57"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
       <c r="N21" s="33" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
     </row>
     <row r="24" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
     </row>
     <row r="25" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
     </row>
     <row r="26" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="Q2:U2"/>
     <mergeCell ref="I23:M26"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="I2:M2"/>
@@ -5468,11 +9875,6 @@
     <mergeCell ref="G14:H16"/>
     <mergeCell ref="G17:H21"/>
     <mergeCell ref="J19:M21"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="Q2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5503,24 +9905,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6853,18 +11255,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6934,7 +11336,7 @@
         <v>5.8</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D7" si="0">ROUND(C4/B4*100,2)</f>
+        <f>ROUND(C4/B4*100,2)</f>
         <v>35.15</v>
       </c>
       <c r="E4" s="1">
@@ -6947,7 +11349,7 @@
         <v>0.52</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H7" si="1">ROUND(G4/F4*100,2)</f>
+        <f>ROUND(G4/F4*100,2)</f>
         <v>3.04</v>
       </c>
       <c r="I4" t="s">
@@ -6965,7 +11367,7 @@
         <v>5.7</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f>ROUND(C5/B5*100,2)</f>
         <v>34.97</v>
       </c>
       <c r="E5" s="1">
@@ -6978,7 +11380,7 @@
         <v>0.21</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f>ROUND(G5/F5*100,2)</f>
         <v>3.58</v>
       </c>
       <c r="I5" t="s">
@@ -6996,7 +11398,7 @@
         <v>5.6</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f>ROUND(C6/B6*100,2)</f>
         <v>33.94</v>
       </c>
       <c r="E6" s="1">
@@ -7009,7 +11411,7 @@
         <v>0.21</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f>ROUND(G6/F6*100,2)</f>
         <v>3.56</v>
       </c>
       <c r="I6" t="s">
@@ -7027,7 +11429,7 @@
         <v>5.6</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f>ROUND(C7/B7*100,2)</f>
         <v>33.94</v>
       </c>
       <c r="E7" s="1">
@@ -7040,7 +11442,7 @@
         <v>0.36</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f>ROUND(G7/F7*100,2)</f>
         <v>3.1</v>
       </c>
       <c r="I7" t="s">
@@ -7048,20 +11450,20 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="1">
         <f>AVERAGE(D3:D7)</f>
         <v>34.795999999999999</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="1">
         <f>AVERAGE(H3:H7)</f>
         <v>3.25</v>
@@ -7076,4 +11478,2729 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E0F2E5-3271-4BBD-808F-CBF0217317D7}">
+  <dimension ref="A1:F362"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45"/>
+      <c r="B1" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="43">
+        <v>0</v>
+      </c>
+      <c r="B3" s="44">
+        <v>1.08</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="42">
+        <v>1</v>
+      </c>
+      <c r="B4" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="42">
+        <v>2</v>
+      </c>
+      <c r="B5" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="42">
+        <v>3</v>
+      </c>
+      <c r="B6" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="42">
+        <v>4</v>
+      </c>
+      <c r="B7" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
+        <v>5</v>
+      </c>
+      <c r="B8" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="42">
+        <v>6</v>
+      </c>
+      <c r="B9" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
+        <v>7</v>
+      </c>
+      <c r="B10" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
+        <v>8</v>
+      </c>
+      <c r="B11" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="42">
+        <v>9</v>
+      </c>
+      <c r="B12" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="42">
+        <v>10</v>
+      </c>
+      <c r="B13" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
+        <v>11</v>
+      </c>
+      <c r="B14" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="42">
+        <v>12</v>
+      </c>
+      <c r="B15" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="42">
+        <v>13</v>
+      </c>
+      <c r="B16" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="42">
+        <v>14</v>
+      </c>
+      <c r="B17" s="41">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
+        <v>15</v>
+      </c>
+      <c r="B18" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="42">
+        <v>16</v>
+      </c>
+      <c r="B19" s="41">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="42">
+        <v>17</v>
+      </c>
+      <c r="B20" s="41">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="42">
+        <v>18</v>
+      </c>
+      <c r="B21" s="41">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="42">
+        <v>19</v>
+      </c>
+      <c r="B22" s="41">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="42">
+        <v>20</v>
+      </c>
+      <c r="B23" s="41">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="42">
+        <v>21</v>
+      </c>
+      <c r="B24" s="41">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="42">
+        <v>22</v>
+      </c>
+      <c r="B25" s="41">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="42">
+        <v>23</v>
+      </c>
+      <c r="B26" s="41">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="42">
+        <v>24</v>
+      </c>
+      <c r="B27" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="42">
+        <v>25</v>
+      </c>
+      <c r="B28" s="41">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="42">
+        <v>26</v>
+      </c>
+      <c r="B29" s="41">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="42">
+        <v>27</v>
+      </c>
+      <c r="B30" s="41">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="42">
+        <v>28</v>
+      </c>
+      <c r="B31" s="41">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="42">
+        <v>29</v>
+      </c>
+      <c r="B32" s="41">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="42">
+        <v>30</v>
+      </c>
+      <c r="B33" s="41">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="42">
+        <v>31</v>
+      </c>
+      <c r="B34" s="41">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="42">
+        <v>32</v>
+      </c>
+      <c r="B35" s="41">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="42">
+        <v>33</v>
+      </c>
+      <c r="B36" s="41">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="42">
+        <v>34</v>
+      </c>
+      <c r="B37" s="41">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="42">
+        <v>35</v>
+      </c>
+      <c r="B38" s="41">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="42">
+        <v>36</v>
+      </c>
+      <c r="B39" s="41">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="42">
+        <v>37</v>
+      </c>
+      <c r="B40" s="41">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="42">
+        <v>38</v>
+      </c>
+      <c r="B41" s="41">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="41">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="42">
+        <v>40</v>
+      </c>
+      <c r="B43" s="41">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="42">
+        <v>41</v>
+      </c>
+      <c r="B44" s="41">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="42">
+        <v>42</v>
+      </c>
+      <c r="B45" s="41">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="42">
+        <v>43</v>
+      </c>
+      <c r="B46" s="41">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="42">
+        <v>44</v>
+      </c>
+      <c r="B47" s="41">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="42">
+        <v>45</v>
+      </c>
+      <c r="B48" s="41">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="42">
+        <v>46</v>
+      </c>
+      <c r="B49" s="41">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="42">
+        <v>47</v>
+      </c>
+      <c r="B50" s="41">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="42">
+        <v>48</v>
+      </c>
+      <c r="B51" s="41">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="42">
+        <v>49</v>
+      </c>
+      <c r="B52" s="41">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="42">
+        <v>50</v>
+      </c>
+      <c r="B53" s="41">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="42">
+        <v>51</v>
+      </c>
+      <c r="B54" s="41">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="42">
+        <v>52</v>
+      </c>
+      <c r="B55" s="41">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="42">
+        <v>53</v>
+      </c>
+      <c r="B56" s="41">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="42">
+        <v>54</v>
+      </c>
+      <c r="B57" s="41">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="42">
+        <v>55</v>
+      </c>
+      <c r="B58" s="41">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="42">
+        <v>56</v>
+      </c>
+      <c r="B59" s="41">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="42">
+        <v>57</v>
+      </c>
+      <c r="B60" s="41">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="42">
+        <v>58</v>
+      </c>
+      <c r="B61" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="42">
+        <v>59</v>
+      </c>
+      <c r="B62" s="41">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="42">
+        <v>60</v>
+      </c>
+      <c r="B63" s="41">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="42">
+        <v>61</v>
+      </c>
+      <c r="B64" s="41">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="42">
+        <v>62</v>
+      </c>
+      <c r="B65" s="41">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="42">
+        <v>63</v>
+      </c>
+      <c r="B66" s="41">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="42">
+        <v>64</v>
+      </c>
+      <c r="B67" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="42">
+        <v>65</v>
+      </c>
+      <c r="B68" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="42">
+        <v>66</v>
+      </c>
+      <c r="B69" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="42">
+        <v>67</v>
+      </c>
+      <c r="B70" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="42">
+        <v>68</v>
+      </c>
+      <c r="B71" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="42">
+        <v>69</v>
+      </c>
+      <c r="B72" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="42">
+        <v>70</v>
+      </c>
+      <c r="B73" s="41">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="42">
+        <v>71</v>
+      </c>
+      <c r="B74" s="41">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="42">
+        <v>72</v>
+      </c>
+      <c r="B75" s="41">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="42">
+        <v>73</v>
+      </c>
+      <c r="B76" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="42">
+        <v>74</v>
+      </c>
+      <c r="B77" s="41">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="42">
+        <v>75</v>
+      </c>
+      <c r="B78" s="41">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="42">
+        <v>76</v>
+      </c>
+      <c r="B79" s="41">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="42">
+        <v>77</v>
+      </c>
+      <c r="B80" s="41">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="42">
+        <v>78</v>
+      </c>
+      <c r="B81" s="41">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="42">
+        <v>79</v>
+      </c>
+      <c r="B82" s="41">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="42">
+        <v>80</v>
+      </c>
+      <c r="B83" s="41">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="42">
+        <v>81</v>
+      </c>
+      <c r="B84" s="41">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="42">
+        <v>82</v>
+      </c>
+      <c r="B85" s="41">
+        <v>0.91</v>
+      </c>
+      <c r="F85">
+        <f>180/6*5</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="42">
+        <v>83</v>
+      </c>
+      <c r="B86" s="41">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="42">
+        <v>84</v>
+      </c>
+      <c r="B87" s="41">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="42">
+        <v>85</v>
+      </c>
+      <c r="B88" s="41">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="42">
+        <v>86</v>
+      </c>
+      <c r="B89" s="41">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="42">
+        <v>87</v>
+      </c>
+      <c r="B90" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="42">
+        <v>88</v>
+      </c>
+      <c r="B91" s="41">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="42">
+        <v>89</v>
+      </c>
+      <c r="B92" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="42">
+        <v>90</v>
+      </c>
+      <c r="B93" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="42">
+        <v>91</v>
+      </c>
+      <c r="B94" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="42">
+        <v>92</v>
+      </c>
+      <c r="B95" s="41">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="42">
+        <v>93</v>
+      </c>
+      <c r="B96" s="41">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="42">
+        <v>94</v>
+      </c>
+      <c r="B97" s="41">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="42">
+        <v>95</v>
+      </c>
+      <c r="B98" s="41">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="42">
+        <v>96</v>
+      </c>
+      <c r="B99" s="41">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="42">
+        <v>97</v>
+      </c>
+      <c r="B100" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="42">
+        <v>98</v>
+      </c>
+      <c r="B101" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="42">
+        <v>99</v>
+      </c>
+      <c r="B102" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="42">
+        <v>100</v>
+      </c>
+      <c r="B103" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="42">
+        <v>101</v>
+      </c>
+      <c r="B104" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="42">
+        <v>102</v>
+      </c>
+      <c r="B105" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="42">
+        <v>103</v>
+      </c>
+      <c r="B106" s="41">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="42">
+        <v>104</v>
+      </c>
+      <c r="B107" s="41">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="42">
+        <v>105</v>
+      </c>
+      <c r="B108" s="41">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="42">
+        <v>106</v>
+      </c>
+      <c r="B109" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="42">
+        <v>107</v>
+      </c>
+      <c r="B110" s="41">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="42">
+        <v>108</v>
+      </c>
+      <c r="B111" s="41">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="42">
+        <v>109</v>
+      </c>
+      <c r="B112" s="41">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="42">
+        <v>110</v>
+      </c>
+      <c r="B113" s="41">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="42">
+        <v>111</v>
+      </c>
+      <c r="B114" s="41">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="42">
+        <v>112</v>
+      </c>
+      <c r="B115" s="41">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="42">
+        <v>113</v>
+      </c>
+      <c r="B116" s="41">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="42">
+        <v>114</v>
+      </c>
+      <c r="B117" s="41">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="42">
+        <v>115</v>
+      </c>
+      <c r="B118" s="41">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="42">
+        <v>116</v>
+      </c>
+      <c r="B119" s="41">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="42">
+        <v>117</v>
+      </c>
+      <c r="B120" s="41">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="42">
+        <v>118</v>
+      </c>
+      <c r="B121" s="41">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="42">
+        <v>119</v>
+      </c>
+      <c r="B122" s="41">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="42">
+        <v>120</v>
+      </c>
+      <c r="B123" s="41">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="42">
+        <v>121</v>
+      </c>
+      <c r="B124" s="41">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="42">
+        <v>122</v>
+      </c>
+      <c r="B125" s="41">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="42">
+        <v>123</v>
+      </c>
+      <c r="B126" s="41">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="42">
+        <v>124</v>
+      </c>
+      <c r="B127" s="41">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="42">
+        <v>125</v>
+      </c>
+      <c r="B128" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="42">
+        <v>126</v>
+      </c>
+      <c r="B129" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="42">
+        <v>127</v>
+      </c>
+      <c r="B130" s="41">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="42">
+        <v>128</v>
+      </c>
+      <c r="B131" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="42">
+        <v>129</v>
+      </c>
+      <c r="B132" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="42">
+        <v>130</v>
+      </c>
+      <c r="B133" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="42">
+        <v>131</v>
+      </c>
+      <c r="B134" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="42">
+        <v>132</v>
+      </c>
+      <c r="B135" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="42">
+        <v>133</v>
+      </c>
+      <c r="B136" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="42">
+        <v>134</v>
+      </c>
+      <c r="B137" s="41">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="42">
+        <v>135</v>
+      </c>
+      <c r="B138" s="41">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="42">
+        <v>136</v>
+      </c>
+      <c r="B139" s="41">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="42">
+        <v>137</v>
+      </c>
+      <c r="B140" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="42">
+        <v>138</v>
+      </c>
+      <c r="B141" s="41">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="42">
+        <v>139</v>
+      </c>
+      <c r="B142" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="42">
+        <v>140</v>
+      </c>
+      <c r="B143" s="41">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="42">
+        <v>141</v>
+      </c>
+      <c r="B144" s="41">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="42">
+        <v>142</v>
+      </c>
+      <c r="B145" s="41">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="42">
+        <v>143</v>
+      </c>
+      <c r="B146" s="41">
+        <v>0.84</v>
+      </c>
+      <c r="F146" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="42">
+        <v>144</v>
+      </c>
+      <c r="B147" s="41">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="42">
+        <v>145</v>
+      </c>
+      <c r="B148" s="41">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="42">
+        <v>146</v>
+      </c>
+      <c r="B149" s="41">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="42">
+        <v>147</v>
+      </c>
+      <c r="B150" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="42">
+        <v>148</v>
+      </c>
+      <c r="B151" s="41">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="42">
+        <v>149</v>
+      </c>
+      <c r="B152" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="42">
+        <v>150</v>
+      </c>
+      <c r="B153" s="41">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="42">
+        <v>151</v>
+      </c>
+      <c r="B154" s="41">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="42">
+        <v>152</v>
+      </c>
+      <c r="B155" s="41">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="42">
+        <v>153</v>
+      </c>
+      <c r="B156" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="42">
+        <v>154</v>
+      </c>
+      <c r="B157" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="42">
+        <v>155</v>
+      </c>
+      <c r="B158" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="42">
+        <v>156</v>
+      </c>
+      <c r="B159" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="42">
+        <v>157</v>
+      </c>
+      <c r="B160" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="42">
+        <v>158</v>
+      </c>
+      <c r="B161" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="42">
+        <v>159</v>
+      </c>
+      <c r="B162" s="41">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="42">
+        <v>160</v>
+      </c>
+      <c r="B163" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="42">
+        <v>161</v>
+      </c>
+      <c r="B164" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="42">
+        <v>162</v>
+      </c>
+      <c r="B165" s="41">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="42">
+        <v>163</v>
+      </c>
+      <c r="B166" s="41">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="42">
+        <v>164</v>
+      </c>
+      <c r="B167" s="41">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="42">
+        <v>165</v>
+      </c>
+      <c r="B168" s="41">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="42">
+        <v>166</v>
+      </c>
+      <c r="B169" s="41">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="42">
+        <v>167</v>
+      </c>
+      <c r="B170" s="41">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="42">
+        <v>168</v>
+      </c>
+      <c r="B171" s="41">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="42">
+        <v>169</v>
+      </c>
+      <c r="B172" s="41">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="42">
+        <v>170</v>
+      </c>
+      <c r="B173" s="41">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="42">
+        <v>171</v>
+      </c>
+      <c r="B174" s="41">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="42">
+        <v>172</v>
+      </c>
+      <c r="B175" s="41">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="42">
+        <v>173</v>
+      </c>
+      <c r="B176" s="41">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="42">
+        <v>174</v>
+      </c>
+      <c r="B177" s="41">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="42">
+        <v>175</v>
+      </c>
+      <c r="B178" s="41">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="42">
+        <v>176</v>
+      </c>
+      <c r="B179" s="41">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="42">
+        <v>177</v>
+      </c>
+      <c r="B180" s="41">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="42">
+        <v>178</v>
+      </c>
+      <c r="B181" s="41">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="42">
+        <v>179</v>
+      </c>
+      <c r="B182" s="41">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="42">
+        <v>180</v>
+      </c>
+      <c r="B183" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="42">
+        <v>181</v>
+      </c>
+      <c r="B184" s="41">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="42">
+        <v>182</v>
+      </c>
+      <c r="B185" s="41">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="42">
+        <v>183</v>
+      </c>
+      <c r="B186" s="41">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="42">
+        <v>184</v>
+      </c>
+      <c r="B187" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="42">
+        <v>185</v>
+      </c>
+      <c r="B188" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="42">
+        <v>186</v>
+      </c>
+      <c r="B189" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="42">
+        <v>187</v>
+      </c>
+      <c r="B190" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="42">
+        <v>188</v>
+      </c>
+      <c r="B191" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="42">
+        <v>189</v>
+      </c>
+      <c r="B192" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="42">
+        <v>190</v>
+      </c>
+      <c r="B193" s="41">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="42">
+        <v>191</v>
+      </c>
+      <c r="B194" s="41">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="42">
+        <v>192</v>
+      </c>
+      <c r="B195" s="41">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="42">
+        <v>193</v>
+      </c>
+      <c r="B196" s="41">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="42">
+        <v>194</v>
+      </c>
+      <c r="B197" s="41">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="42">
+        <v>195</v>
+      </c>
+      <c r="B198" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="42">
+        <v>196</v>
+      </c>
+      <c r="B199" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="42">
+        <v>197</v>
+      </c>
+      <c r="B200" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="42">
+        <v>198</v>
+      </c>
+      <c r="B201" s="41">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="42">
+        <v>199</v>
+      </c>
+      <c r="B202" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="42">
+        <v>200</v>
+      </c>
+      <c r="B203" s="41">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="42">
+        <v>201</v>
+      </c>
+      <c r="B204" s="41">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="42">
+        <v>202</v>
+      </c>
+      <c r="B205" s="41">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="42">
+        <v>203</v>
+      </c>
+      <c r="B206" s="41">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="42">
+        <v>204</v>
+      </c>
+      <c r="B207" s="41">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="42">
+        <v>205</v>
+      </c>
+      <c r="B208" s="41">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="42">
+        <v>206</v>
+      </c>
+      <c r="B209" s="41">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="42">
+        <v>207</v>
+      </c>
+      <c r="B210" s="41">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="42">
+        <v>208</v>
+      </c>
+      <c r="B211" s="41">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="42">
+        <v>209</v>
+      </c>
+      <c r="B212" s="41">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="42">
+        <v>210</v>
+      </c>
+      <c r="B213" s="41">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="42">
+        <v>211</v>
+      </c>
+      <c r="B214" s="41">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="42">
+        <v>212</v>
+      </c>
+      <c r="B215" s="41">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="42">
+        <v>213</v>
+      </c>
+      <c r="B216" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="42">
+        <v>214</v>
+      </c>
+      <c r="B217" s="41">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="42">
+        <v>215</v>
+      </c>
+      <c r="B218" s="41">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="42">
+        <v>216</v>
+      </c>
+      <c r="B219" s="41">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="42">
+        <v>217</v>
+      </c>
+      <c r="B220" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="42">
+        <v>218</v>
+      </c>
+      <c r="B221" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="42">
+        <v>219</v>
+      </c>
+      <c r="B222" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="42">
+        <v>220</v>
+      </c>
+      <c r="B223" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="42">
+        <v>221</v>
+      </c>
+      <c r="B224" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="42">
+        <v>222</v>
+      </c>
+      <c r="B225" s="41">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="42">
+        <v>223</v>
+      </c>
+      <c r="B226" s="41">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="42">
+        <v>224</v>
+      </c>
+      <c r="B227" s="41">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="42">
+        <v>225</v>
+      </c>
+      <c r="B228" s="41">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="42">
+        <v>226</v>
+      </c>
+      <c r="B229" s="41">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="42">
+        <v>227</v>
+      </c>
+      <c r="B230" s="41">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="42">
+        <v>228</v>
+      </c>
+      <c r="B231" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="42">
+        <v>229</v>
+      </c>
+      <c r="B232" s="41">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="42">
+        <v>230</v>
+      </c>
+      <c r="B233" s="41">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="42">
+        <v>231</v>
+      </c>
+      <c r="B234" s="41">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="42">
+        <v>232</v>
+      </c>
+      <c r="B235" s="41">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="42">
+        <v>233</v>
+      </c>
+      <c r="B236" s="41">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="42">
+        <v>234</v>
+      </c>
+      <c r="B237" s="41">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="42">
+        <v>235</v>
+      </c>
+      <c r="B238" s="41">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="42">
+        <v>236</v>
+      </c>
+      <c r="B239" s="41">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="42">
+        <v>237</v>
+      </c>
+      <c r="B240" s="41">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="42">
+        <v>238</v>
+      </c>
+      <c r="B241" s="41">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="42">
+        <v>239</v>
+      </c>
+      <c r="B242" s="41">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="42">
+        <v>240</v>
+      </c>
+      <c r="B243" s="41">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="42">
+        <v>241</v>
+      </c>
+      <c r="B244" s="41">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="42">
+        <v>242</v>
+      </c>
+      <c r="B245" s="41">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="42">
+        <v>243</v>
+      </c>
+      <c r="B246" s="41">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="42">
+        <v>244</v>
+      </c>
+      <c r="B247" s="41">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="42">
+        <v>245</v>
+      </c>
+      <c r="B248" s="41">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="42">
+        <v>246</v>
+      </c>
+      <c r="B249" s="41">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="42">
+        <v>247</v>
+      </c>
+      <c r="B250" s="41">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="42">
+        <v>248</v>
+      </c>
+      <c r="B251" s="41">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="42">
+        <v>249</v>
+      </c>
+      <c r="B252" s="41">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="42">
+        <v>250</v>
+      </c>
+      <c r="B253" s="41">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="42">
+        <v>251</v>
+      </c>
+      <c r="B254" s="41">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="42">
+        <v>252</v>
+      </c>
+      <c r="B255" s="41">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="42">
+        <v>253</v>
+      </c>
+      <c r="B256" s="41">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="42">
+        <v>254</v>
+      </c>
+      <c r="B257" s="41">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="42">
+        <v>255</v>
+      </c>
+      <c r="B258" s="41">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="42">
+        <v>256</v>
+      </c>
+      <c r="B259" s="41">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="42">
+        <v>257</v>
+      </c>
+      <c r="B260" s="41">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="42">
+        <v>258</v>
+      </c>
+      <c r="B261" s="41">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="42">
+        <v>259</v>
+      </c>
+      <c r="B262" s="41">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="42">
+        <v>260</v>
+      </c>
+      <c r="B263" s="41">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="42">
+        <v>261</v>
+      </c>
+      <c r="B264" s="41">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="42">
+        <v>262</v>
+      </c>
+      <c r="B265" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="42">
+        <v>263</v>
+      </c>
+      <c r="B266" s="41">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="42">
+        <v>264</v>
+      </c>
+      <c r="B267" s="41">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="42">
+        <v>265</v>
+      </c>
+      <c r="B268" s="41">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="42">
+        <v>266</v>
+      </c>
+      <c r="B269" s="41">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="42">
+        <v>267</v>
+      </c>
+      <c r="B270" s="41">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="42">
+        <v>268</v>
+      </c>
+      <c r="B271" s="41">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="42">
+        <v>269</v>
+      </c>
+      <c r="B272" s="41">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="42">
+        <v>270</v>
+      </c>
+      <c r="B273" s="41">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="42">
+        <v>271</v>
+      </c>
+      <c r="B274" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="42">
+        <v>272</v>
+      </c>
+      <c r="B275" s="41">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="42">
+        <v>273</v>
+      </c>
+      <c r="B276" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="42">
+        <v>274</v>
+      </c>
+      <c r="B277" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="42">
+        <v>275</v>
+      </c>
+      <c r="B278" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="42">
+        <v>276</v>
+      </c>
+      <c r="B279" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="42">
+        <v>277</v>
+      </c>
+      <c r="B280" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="42">
+        <v>278</v>
+      </c>
+      <c r="B281" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="42">
+        <v>279</v>
+      </c>
+      <c r="B282" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="42">
+        <v>280</v>
+      </c>
+      <c r="B283" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="42">
+        <v>281</v>
+      </c>
+      <c r="B284" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="42">
+        <v>282</v>
+      </c>
+      <c r="B285" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="42">
+        <v>283</v>
+      </c>
+      <c r="B286" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="42">
+        <v>284</v>
+      </c>
+      <c r="B287" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="42">
+        <v>285</v>
+      </c>
+      <c r="B288" s="41">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="42">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="42">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="42">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="42">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="42">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="42">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="42">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="42">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="42">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="42">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="42">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="42">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="42">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="42">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="42">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="42">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="42">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="42">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="42">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="42">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="42">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="42">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="42">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="42">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="42">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="42">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="42">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="42">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="42">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="42">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="42">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="42">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="42">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="42">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="42">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="42">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="42">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="42">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="42">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="42">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="42">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="42">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="42">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="42">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="42">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="42">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="42">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="42">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="42">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="42">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="42">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="42">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="42">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="42">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="42">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="42">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="42">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="42">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="42">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="42">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="42">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="42">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="42">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="42">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="42">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="42">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="42">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="42">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="42">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="42">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="42">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="42">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="42">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="42">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:I147">
+    <sortCondition descending="1" ref="H3:H147"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>